--- a/EP3_dados.xlsx
+++ b/EP3_dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\2º Semestre\DP DeSoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\GitHub\Akinator_Da_DP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="103">
   <si>
     <t>Ariel</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Android</t>
   </si>
   <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>Castanho</t>
-  </si>
-  <si>
     <t>Tipo de moradia</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Cor favorita</t>
   </si>
   <si>
-    <t>Roxo</t>
-  </si>
-  <si>
     <t>Carro ou avião</t>
   </si>
   <si>
@@ -209,42 +200,27 @@
     <t>São Paulo</t>
   </si>
   <si>
-    <t>Loiro</t>
-  </si>
-  <si>
     <t>Metal</t>
   </si>
   <si>
-    <t>Preto</t>
-  </si>
-  <si>
     <t>Calor</t>
   </si>
   <si>
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>Iphone</t>
-  </si>
-  <si>
     <t>Pop</t>
   </si>
   <si>
     <t>Salgado</t>
   </si>
   <si>
-    <t>Azul</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>Rap</t>
   </si>
   <si>
-    <t>Cinza</t>
-  </si>
-  <si>
     <t>Café</t>
   </si>
   <si>
@@ -269,18 +245,12 @@
     <t>Mecatrônica</t>
   </si>
   <si>
-    <t>Nenhum</t>
-  </si>
-  <si>
     <t>Eletro</t>
   </si>
   <si>
     <t>Série</t>
   </si>
   <si>
-    <t>SIm</t>
-  </si>
-  <si>
     <t>Rock</t>
   </si>
   <si>
@@ -299,7 +269,70 @@
     <t>Samba</t>
   </si>
   <si>
-    <t>Vermelho</t>
+    <t>nenhum</t>
+  </si>
+  <si>
+    <t>castanho</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>loiro</t>
+  </si>
+  <si>
+    <t>preto</t>
+  </si>
+  <si>
+    <t>roxo</t>
+  </si>
+  <si>
+    <t>cinza</t>
+  </si>
+  <si>
+    <t>vermelho</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Delch</t>
+  </si>
+  <si>
+    <t>animal de estimação</t>
+  </si>
+  <si>
+    <t>biscoito ou bolacha</t>
+  </si>
+  <si>
+    <t>rodizio japones ou carne</t>
+  </si>
+  <si>
+    <t>videogame ou balada</t>
+  </si>
+  <si>
+    <t>Rafão</t>
+  </si>
+  <si>
+    <t>Lucão</t>
+  </si>
+  <si>
+    <t>Rafa Almada</t>
+  </si>
+  <si>
+    <t>descendência</t>
+  </si>
+  <si>
+    <t>Bolacha</t>
+  </si>
+  <si>
+    <t>portuguesa</t>
   </si>
 </sst>
 </file>
@@ -651,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D915F-729E-4270-BCE1-72AC6D8598F8}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,9 +717,14 @@
     <col min="25" max="25" width="11.85546875" customWidth="1"/>
     <col min="26" max="26" width="14.140625" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -730,66 +768,81 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
       </c>
       <c r="R1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>55</v>
-      </c>
       <c r="Z1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -804,63 +857,63 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
       <c r="Q2" t="s">
         <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -872,10 +925,10 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -887,63 +940,63 @@
         <v>33</v>
       </c>
       <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -961,7 +1014,7 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -970,135 +1023,135 @@
         <v>33</v>
       </c>
       <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
       <c r="Q4" t="s">
         <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
         <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
         <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
         <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
         <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
         <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X5" t="s">
         <v>33</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1109,16 +1162,16 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1133,55 +1186,55 @@
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
         <v>40</v>
       </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
       <c r="Q6" t="s">
         <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X6" t="s">
         <v>33</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1192,13 +1245,13 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -1210,40 +1263,40 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
       </c>
       <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
         <v>40</v>
       </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q7" t="s">
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>
@@ -1255,99 +1308,99 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1355,19 +1408,19 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
@@ -1379,81 +1432,81 @@
         <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
       </c>
       <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
         <v>33</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X9" t="s">
         <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
         <v>33</v>
@@ -1462,58 +1515,58 @@
         <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s">
         <v>33</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1521,25 +1574,25 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -1548,55 +1601,55 @@
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
         <v>62</v>
       </c>
-      <c r="P11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" t="s">
-        <v>68</v>
-      </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
         <v>33</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1634,60 +1687,69 @@
         <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" t="s">
-        <v>44</v>
-      </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V12" t="s">
         <v>33</v>
       </c>
       <c r="W12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X12" t="s">
         <v>33</v>
       </c>
       <c r="Y12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="s">
         <v>33</v>
       </c>
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>81</v>
@@ -1699,49 +1761,49 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
         <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
         <v>33</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="s">
         <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="T13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V13" t="s">
         <v>33</v>
@@ -1750,39 +1812,39 @@
         <v>33</v>
       </c>
       <c r="X13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
         <v>33</v>
@@ -1791,81 +1853,81 @@
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
         <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q14" t="s">
         <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S14" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -1883,60 +1945,60 @@
         <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q15" t="s">
         <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s">
         <v>33</v>
       </c>
       <c r="X15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
@@ -1948,49 +2010,49 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
         <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q16" t="s">
         <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V16" t="s">
         <v>33</v>
@@ -1999,13 +2061,13 @@
         <v>33</v>
       </c>
       <c r="X16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s">
         <v>33</v>
@@ -2016,13 +2078,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>18</v>
@@ -2040,7 +2102,7 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>33</v>
@@ -2049,46 +2111,46 @@
         <v>33</v>
       </c>
       <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s">
         <v>69</v>
       </c>
-      <c r="N17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
       <c r="Q17" t="s">
         <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="s">
         <v>33</v>
@@ -2099,79 +2161,79 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
         <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L18" t="s">
         <v>33</v>
       </c>
       <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s">
         <v>40</v>
       </c>
-      <c r="N18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" t="s">
-        <v>42</v>
-      </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="S18" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="T18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="U18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W18" t="s">
         <v>33</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="s">
         <v>33</v>
@@ -2194,7 +2256,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -2203,58 +2265,58 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
         <v>33</v>
       </c>
       <c r="M19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
         <v>40</v>
       </c>
-      <c r="N19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" t="s">
-        <v>44</v>
-      </c>
       <c r="S19" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="W19" t="s">
         <v>33</v>
       </c>
       <c r="X19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Z19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="s">
         <v>33</v>
@@ -2268,22 +2330,22 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
         <v>33</v>
@@ -2298,48 +2360,463 @@
         <v>33</v>
       </c>
       <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s">
         <v>40</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" t="s">
+        <v>84</v>
+      </c>
+      <c r="T21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" t="s">
+        <v>62</v>
+      </c>
+      <c r="S23" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="s">
         <v>40</v>
       </c>
-      <c r="O20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" t="s">
-        <v>44</v>
-      </c>
-      <c r="S20" t="s">
-        <v>69</v>
-      </c>
-      <c r="T20" t="s">
-        <v>78</v>
-      </c>
-      <c r="U20" t="s">
-        <v>64</v>
-      </c>
-      <c r="V20" t="s">
-        <v>33</v>
-      </c>
-      <c r="W20" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="Q25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" t="s">
+        <v>70</v>
+      </c>
+      <c r="U25" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s">
         <v>33</v>
       </c>
     </row>

--- a/EP3_dados.xlsx
+++ b/EP3_dados.xlsx
@@ -24,64 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="103">
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Christiano</t>
-  </si>
-  <si>
-    <t>Ester</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Biro</t>
-  </si>
-  <si>
-    <t>João Laet</t>
-  </si>
-  <si>
-    <t>Matita</t>
-  </si>
-  <si>
-    <t>Matheus</t>
-  </si>
-  <si>
-    <t>Pedro dos Santos</t>
-  </si>
-  <si>
-    <t>Pedro Henrique</t>
-  </si>
-  <si>
-    <t>Pedro Isidoro</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Victor Aprigliano</t>
-  </si>
-  <si>
-    <t>Vitão</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="135">
   <si>
     <t>Sala</t>
   </si>
@@ -299,40 +242,193 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Delch</t>
-  </si>
-  <si>
     <t>animal de estimação</t>
   </si>
   <si>
     <t>biscoito ou bolacha</t>
   </si>
   <si>
-    <t>rodizio japones ou carne</t>
-  </si>
-  <si>
-    <t>videogame ou balada</t>
-  </si>
-  <si>
-    <t>Rafão</t>
-  </si>
-  <si>
-    <t>Lucão</t>
-  </si>
-  <si>
-    <t>Rafa Almada</t>
-  </si>
-  <si>
     <t>descendência</t>
   </si>
   <si>
+    <t>portuguesa</t>
+  </si>
+  <si>
+    <t>medo de aranhas</t>
+  </si>
+  <si>
+    <t>videogames</t>
+  </si>
+  <si>
+    <t>casa na praia</t>
+  </si>
+  <si>
+    <t>destro ou canhoto</t>
+  </si>
+  <si>
+    <t>libanesa</t>
+  </si>
+  <si>
+    <t>italiana</t>
+  </si>
+  <si>
+    <t>espanhola</t>
+  </si>
+  <si>
+    <t>gosta de cozinhar</t>
+  </si>
+  <si>
+    <t>fala tres linguas ou mais</t>
+  </si>
+  <si>
+    <t>sabe surfar</t>
+  </si>
+  <si>
+    <t>já acampou</t>
+  </si>
+  <si>
+    <t>tem medo de injeção</t>
+  </si>
+  <si>
+    <t>já quebrou algum osso</t>
+  </si>
+  <si>
+    <t>já foi picado por uma abelha</t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
+  </si>
+  <si>
+    <t>húngara</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>o Ariel</t>
+  </si>
+  <si>
+    <t>o Arthur</t>
+  </si>
+  <si>
+    <t>o Christiano</t>
+  </si>
+  <si>
+    <t>a Ester</t>
+  </si>
+  <si>
+    <t>o Felipe</t>
+  </si>
+  <si>
+    <t>o Fernando</t>
+  </si>
+  <si>
+    <t>o Gabriel</t>
+  </si>
+  <si>
+    <t>o Biro</t>
+  </si>
+  <si>
+    <t>o João Laet</t>
+  </si>
+  <si>
+    <t>o Matita</t>
+  </si>
+  <si>
+    <t>o Matheus</t>
+  </si>
+  <si>
+    <t>o Pedro dos Santos</t>
+  </si>
+  <si>
+    <t>o Pedro Henrique</t>
+  </si>
+  <si>
+    <t>o Pedro Isidoro</t>
+  </si>
+  <si>
+    <t>o Rodrigo</t>
+  </si>
+  <si>
+    <t>o Tiago</t>
+  </si>
+  <si>
+    <t>o Victor Aprigliano</t>
+  </si>
+  <si>
+    <t>o Vitão</t>
+  </si>
+  <si>
+    <t>o Daniel</t>
+  </si>
+  <si>
+    <t>o PH</t>
+  </si>
+  <si>
+    <t>o Delch</t>
+  </si>
+  <si>
+    <t>o Rafão</t>
+  </si>
+  <si>
+    <t>o Lucão</t>
+  </si>
+  <si>
+    <t>o Rafa Almada</t>
+  </si>
+  <si>
+    <t>o Antônio</t>
+  </si>
+  <si>
+    <t>o Gabriel Francato</t>
+  </si>
+  <si>
+    <t>o Pedrones</t>
+  </si>
+  <si>
+    <t>o Nicholas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a Andressa</t>
+  </si>
+  <si>
+    <t>a Natália</t>
+  </si>
+  <si>
     <t>Bolacha</t>
   </si>
   <si>
-    <t>portuguesa</t>
+    <t>Biscoito</t>
+  </si>
+  <si>
+    <t>Destra</t>
+  </si>
+  <si>
+    <t>o Vini</t>
+  </si>
+  <si>
+    <t>nenhuma</t>
+  </si>
+  <si>
+    <t>polonesa</t>
+  </si>
+  <si>
+    <t>alemã</t>
+  </si>
+  <si>
+    <t>africana</t>
+  </si>
+  <si>
+    <t>austríaca</t>
+  </si>
+  <si>
+    <t>árabe</t>
+  </si>
+  <si>
+    <t>nórdica</t>
+  </si>
+  <si>
+    <t>Canhota</t>
   </si>
 </sst>
 </file>
@@ -684,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D915F-729E-4270-BCE1-72AC6D8598F8}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,2105 +815,4012 @@
     <col min="27" max="27" width="12" customWidth="1"/>
     <col min="28" max="28" width="19.140625" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" customWidth="1"/>
     <col min="31" max="31" width="20.28515625" customWidth="1"/>
     <col min="32" max="32" width="13.5703125" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" customWidth="1"/>
+    <col min="36" max="36" width="23.140625" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" customWidth="1"/>
+    <col min="39" max="39" width="20.140625" customWidth="1"/>
+    <col min="40" max="40" width="21.5703125" customWidth="1"/>
+    <col min="41" max="41" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
       </c>
       <c r="E4">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
       </c>
       <c r="E6">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z6" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="X7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" t="s">
-        <v>83</v>
-      </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" t="s">
-        <v>51</v>
-      </c>
-      <c r="X9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD10" t="s">
         <v>82</v>
       </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" t="s">
-        <v>89</v>
-      </c>
-      <c r="T10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="X11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD12" t="s">
         <v>75</v>
       </c>
-      <c r="P12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" t="s">
-        <v>87</v>
-      </c>
-      <c r="T12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s">
-        <v>47</v>
-      </c>
-      <c r="V12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W12" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="AE12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD13" t="s">
         <v>82</v>
       </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" t="s">
-        <v>70</v>
-      </c>
-      <c r="U13" t="s">
-        <v>47</v>
-      </c>
-      <c r="V13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13" t="s">
-        <v>33</v>
-      </c>
-      <c r="X13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="AE13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R14" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
-      </c>
-      <c r="S15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
       </c>
       <c r="E16">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U16" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="X16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z16" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AA16" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="S17" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="V17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W17" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z17" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>19</v>
       </c>
       <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s">
-        <v>82</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="U18" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18" t="s">
-        <v>84</v>
-      </c>
-      <c r="T18" t="s">
-        <v>70</v>
-      </c>
-      <c r="U18" t="s">
-        <v>59</v>
-      </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="X18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R19" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="S19" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="T19" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="X19" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" t="s">
+        <v>65</v>
+      </c>
+      <c r="T20" t="s">
         <v>51</v>
       </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" t="s">
-        <v>82</v>
-      </c>
-      <c r="O20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S20" t="s">
-        <v>84</v>
-      </c>
-      <c r="T20" t="s">
-        <v>70</v>
-      </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W20" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z20" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R21" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="V21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z21" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" t="s">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>51</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
+        <v>40</v>
+      </c>
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="s">
+        <v>14</v>
+      </c>
+      <c r="X22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
         <v>62</v>
-      </c>
-      <c r="S22" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" t="s">
-        <v>70</v>
-      </c>
-      <c r="U22" t="s">
-        <v>59</v>
-      </c>
-      <c r="V22" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" t="s">
-        <v>33</v>
-      </c>
-      <c r="X22" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
       </c>
       <c r="E23">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R23" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="T23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="V23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W23" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N24" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P24" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="V24" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>70</v>
+      </c>
+      <c r="T25" t="s">
         <v>51</v>
       </c>
-      <c r="J25" t="s">
+      <c r="U25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="K25" t="s">
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" t="s">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="U28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD28" t="s">
         <v>82</v>
       </c>
-      <c r="N25" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="AE28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W29" t="s">
+        <v>32</v>
+      </c>
+      <c r="X29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
         <v>64</v>
       </c>
-      <c r="P25" t="s">
+      <c r="N30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" t="s">
+        <v>28</v>
+      </c>
+      <c r="V30" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30" t="s">
+        <v>32</v>
+      </c>
+      <c r="X30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>65</v>
+      </c>
+      <c r="T31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" t="s">
-        <v>62</v>
-      </c>
-      <c r="S25" t="s">
-        <v>89</v>
-      </c>
-      <c r="T25" t="s">
-        <v>70</v>
-      </c>
-      <c r="U25" t="s">
-        <v>47</v>
-      </c>
-      <c r="V25" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" t="s">
-        <v>51</v>
-      </c>
-      <c r="X25" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>33</v>
+      <c r="V31" t="s">
+        <v>14</v>
+      </c>
+      <c r="W31" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" t="s">
+        <v>67</v>
+      </c>
+      <c r="T32" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" t="s">
+        <v>14</v>
+      </c>
+      <c r="W32" t="s">
+        <v>32</v>
+      </c>
+      <c r="X32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/EP3_dados.xlsx
+++ b/EP3_dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="137">
   <si>
     <t>Sala</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>Canhota</t>
+  </si>
+  <si>
+    <t>o Hélio</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
 </sst>
 </file>
@@ -780,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D915F-729E-4270-BCE1-72AC6D8598F8}">
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+    <sheetView tabSelected="1" topLeftCell="AH13" workbookViewId="0">
+      <selection activeCell="AP33" sqref="AP33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,6 +3194,9 @@
       <c r="AK19" t="s">
         <v>32</v>
       </c>
+      <c r="AL19" t="s">
+        <v>14</v>
+      </c>
       <c r="AM19" t="s">
         <v>14</v>
       </c>
@@ -4820,6 +4829,131 @@
         <v>14</v>
       </c>
       <c r="AO32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V33" t="s">
+        <v>14</v>
+      </c>
+      <c r="W33" t="s">
+        <v>32</v>
+      </c>
+      <c r="X33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO33" t="s">
         <v>14</v>
       </c>
     </row>

--- a/EP3_dados.xlsx
+++ b/EP3_dados.xlsx
@@ -389,9 +389,6 @@
     <t>o Nicholas</t>
   </si>
   <si>
-    <t xml:space="preserve"> a Andressa</t>
-  </si>
-  <si>
     <t>a Natália</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>a Andressa</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D915F-729E-4270-BCE1-72AC6D8598F8}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH13" workbookViewId="0">
-      <selection activeCell="AP33" sqref="AP33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,22 +1043,22 @@
         <v>32</v>
       </c>
       <c r="AC2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
         <v>124</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>125</v>
       </c>
       <c r="AI2" t="s">
         <v>14</v>
@@ -1168,7 +1168,7 @@
         <v>32</v>
       </c>
       <c r="AC3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD3" t="s">
         <v>75</v>
@@ -1183,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="AH3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI3" t="s">
         <v>14</v>
@@ -1293,22 +1293,22 @@
         <v>32</v>
       </c>
       <c r="AC4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" t="s">
         <v>124</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>125</v>
       </c>
       <c r="AI4" t="s">
         <v>14</v>
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="AC5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD5" t="s">
         <v>81</v>
@@ -1433,7 +1433,7 @@
         <v>32</v>
       </c>
       <c r="AH5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI5" t="s">
         <v>14</v>
@@ -1543,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="AC6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD6" t="s">
         <v>81</v>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="AH6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI6" t="s">
         <v>14</v>
@@ -1668,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="AC7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD7" t="s">
         <v>80</v>
@@ -1683,7 +1683,7 @@
         <v>32</v>
       </c>
       <c r="AH7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI7" t="s">
         <v>14</v>
@@ -1793,10 +1793,10 @@
         <v>32</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE8" t="s">
         <v>14</v>
@@ -1808,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="AH8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI8" t="s">
         <v>14</v>
@@ -1918,10 +1918,10 @@
         <v>32</v>
       </c>
       <c r="AC9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE9" t="s">
         <v>32</v>
@@ -1933,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI9" t="s">
         <v>14</v>
@@ -2043,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD10" t="s">
         <v>82</v>
@@ -2058,7 +2058,7 @@
         <v>14</v>
       </c>
       <c r="AH10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI10" t="s">
         <v>32</v>
@@ -2168,10 +2168,10 @@
         <v>14</v>
       </c>
       <c r="AC11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE11" t="s">
         <v>14</v>
@@ -2183,7 +2183,7 @@
         <v>32</v>
       </c>
       <c r="AH11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI11" t="s">
         <v>32</v>
@@ -2293,7 +2293,7 @@
         <v>32</v>
       </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD12" t="s">
         <v>75</v>
@@ -2308,7 +2308,7 @@
         <v>32</v>
       </c>
       <c r="AH12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI12" t="s">
         <v>32</v>
@@ -2418,7 +2418,7 @@
         <v>14</v>
       </c>
       <c r="AC13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD13" t="s">
         <v>82</v>
@@ -2433,7 +2433,7 @@
         <v>32</v>
       </c>
       <c r="AH13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI13" t="s">
         <v>14</v>
@@ -2543,10 +2543,10 @@
         <v>32</v>
       </c>
       <c r="AC14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE14" t="s">
         <v>32</v>
@@ -2558,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="AH14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI14" t="s">
         <v>14</v>
@@ -2668,7 +2668,7 @@
         <v>14</v>
       </c>
       <c r="AC15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD15" t="s">
         <v>75</v>
@@ -2683,7 +2683,7 @@
         <v>32</v>
       </c>
       <c r="AH15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI15" t="s">
         <v>32</v>
@@ -2793,22 +2793,22 @@
         <v>14</v>
       </c>
       <c r="AC16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH16" t="s">
         <v>124</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>125</v>
       </c>
       <c r="AI16" t="s">
         <v>14</v>
@@ -2918,10 +2918,10 @@
         <v>14</v>
       </c>
       <c r="AC17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE17" t="s">
         <v>14</v>
@@ -2933,7 +2933,7 @@
         <v>14</v>
       </c>
       <c r="AH17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI17" t="s">
         <v>14</v>
@@ -3043,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="AC18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD18" t="s">
         <v>81</v>
@@ -3058,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="AH18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI18" t="s">
         <v>14</v>
@@ -3168,10 +3168,10 @@
         <v>14</v>
       </c>
       <c r="AC19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="s">
         <v>32</v>
@@ -3183,7 +3183,7 @@
         <v>32</v>
       </c>
       <c r="AH19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI19" t="s">
         <v>32</v>
@@ -3293,10 +3293,10 @@
         <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE20" t="s">
         <v>32</v>
@@ -3308,7 +3308,7 @@
         <v>14</v>
       </c>
       <c r="AH20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI20" t="s">
         <v>32</v>
@@ -3418,22 +3418,22 @@
         <v>14</v>
       </c>
       <c r="AC21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH21" t="s">
         <v>124</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>125</v>
       </c>
       <c r="AI21" t="s">
         <v>14</v>
@@ -3543,7 +3543,7 @@
         <v>32</v>
       </c>
       <c r="AC22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD22" t="s">
         <v>81</v>
@@ -3558,7 +3558,7 @@
         <v>14</v>
       </c>
       <c r="AH22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI22" t="s">
         <v>14</v>
@@ -3668,7 +3668,7 @@
         <v>14</v>
       </c>
       <c r="AC23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD23" t="s">
         <v>75</v>
@@ -3683,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="AH23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI23" t="s">
         <v>14</v>
@@ -3793,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="AC24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD24" t="s">
         <v>81</v>
@@ -3808,7 +3808,7 @@
         <v>14</v>
       </c>
       <c r="AH24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI24" t="s">
         <v>32</v>
@@ -3918,7 +3918,7 @@
         <v>14</v>
       </c>
       <c r="AC25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD25" t="s">
         <v>75</v>
@@ -3933,7 +3933,7 @@
         <v>32</v>
       </c>
       <c r="AH25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI25" t="s">
         <v>32</v>
@@ -4043,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="AC26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD26" t="s">
         <v>80</v>
@@ -4058,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="AH26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI26" t="s">
         <v>32</v>
@@ -4168,7 +4168,7 @@
         <v>14</v>
       </c>
       <c r="AC27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD27" t="s">
         <v>81</v>
@@ -4183,7 +4183,7 @@
         <v>32</v>
       </c>
       <c r="AH27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI27" t="s">
         <v>14</v>
@@ -4293,7 +4293,7 @@
         <v>32</v>
       </c>
       <c r="AC28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD28" t="s">
         <v>82</v>
@@ -4308,7 +4308,7 @@
         <v>32</v>
       </c>
       <c r="AH28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI28" t="s">
         <v>32</v>
@@ -4418,7 +4418,7 @@
         <v>14</v>
       </c>
       <c r="AC29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD29" t="s">
         <v>91</v>
@@ -4433,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="AH29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI29" t="s">
         <v>14</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -4543,7 +4543,7 @@
         <v>14</v>
       </c>
       <c r="AC30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD30" t="s">
         <v>81</v>
@@ -4558,7 +4558,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI30" t="s">
         <v>14</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -4668,7 +4668,7 @@
         <v>14</v>
       </c>
       <c r="AC31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD31" t="s">
         <v>81</v>
@@ -4683,7 +4683,7 @@
         <v>14</v>
       </c>
       <c r="AH31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI31" t="s">
         <v>32</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -4793,7 +4793,7 @@
         <v>14</v>
       </c>
       <c r="AC32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD32" t="s">
         <v>75</v>
@@ -4808,7 +4808,7 @@
         <v>32</v>
       </c>
       <c r="AH32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI32" t="s">
         <v>32</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -4843,7 +4843,7 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33">
         <v>19</v>
@@ -4918,7 +4918,7 @@
         <v>14</v>
       </c>
       <c r="AC33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD33" t="s">
         <v>75</v>
@@ -4933,7 +4933,7 @@
         <v>14</v>
       </c>
       <c r="AH33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AI33" t="s">
         <v>14</v>
